--- a/biology/Médecine/Enrique_Paris/Enrique_Paris.xlsx
+++ b/biology/Médecine/Enrique_Paris/Enrique_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oscar Enrique Paris Mancilla, né à Puerto Montt le 3 septembre 1948, est un médecin et homme politique chilien. 
-De 2020 à 2022, il est ministre de la Santé dans le gouvernement de Sebastián Piñera[1].
+De 2020 à 2022, il est ministre de la Santé dans le gouvernement de Sebastián Piñera.
 </t>
         </is>
       </c>
@@ -515,14 +527,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Diplômé en chirurgie de l'Université pontificale catholique du Chili (PUC), il exerce à Achao (Chiloé) entre 1975 et 1979 et devient directeur de l'hôpital de la petite ville. Il obtient ensuite une bourse de résidence en pédiatrie à l'hôpital Luis Calvo Mackenna (Providencia), puis une bourse en soins intensifs pédiatriques à l'Université catholique de Louvain. Il se spécialise em toxicologie à l'Université de Georgetown, puis en soins intensifs post-opératoires cardiaques, à l'hôpital de l'Université du Michigan[1].
-Carrière médicale et universitaire
-Fondateur et directeur du Centre d'information toxicologique et des médicaments de l'École de médecine de la PUC (1992-2017), il dirige l'Unité de soins intensifs de l'hôpital Sótero del Río de Puente Alto. 
-Président national du Collège médical du Chili de 2011 à 2017, il est ensuite nommé doyen de la Faculté des sciences de l'Université Mayor (2018-2019)[1].
-Carrière politique
-Après avoir été conseiller auprès de Michelle Bachelet (2000-2002) puis d'Álvaro Erazo (2008-2010) au ministère de la Santé, il se joint à l'équipe de Sebastián Piñera lorsque celui-ci mène campagne pour la présidentielle de 2017[1].
-Le 13 juin 2020, alors que le Chili est durement touché par la pandémie de covid-19[2], il est nommé ministre de la Santé en remplacement de Jaime Mañalich[3],[1].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé en chirurgie de l'Université pontificale catholique du Chili (PUC), il exerce à Achao (Chiloé) entre 1975 et 1979 et devient directeur de l'hôpital de la petite ville. Il obtient ensuite une bourse de résidence en pédiatrie à l'hôpital Luis Calvo Mackenna (Providencia), puis une bourse en soins intensifs pédiatriques à l'Université catholique de Louvain. Il se spécialise em toxicologie à l'Université de Georgetown, puis en soins intensifs post-opératoires cardiaques, à l'hôpital de l'Université du Michigan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enrique_Paris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enrique_Paris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale et universitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondateur et directeur du Centre d'information toxicologique et des médicaments de l'École de médecine de la PUC (1992-2017), il dirige l'Unité de soins intensifs de l'hôpital Sótero del Río de Puente Alto. 
+Président national du Collège médical du Chili de 2011 à 2017, il est ensuite nommé doyen de la Faculté des sciences de l'Université Mayor (2018-2019).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enrique_Paris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enrique_Paris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été conseiller auprès de Michelle Bachelet (2000-2002) puis d'Álvaro Erazo (2008-2010) au ministère de la Santé, il se joint à l'équipe de Sebastián Piñera lorsque celui-ci mène campagne pour la présidentielle de 2017.
+Le 13 juin 2020, alors que le Chili est durement touché par la pandémie de covid-19, il est nommé ministre de la Santé en remplacement de Jaime Mañalich,.
 </t>
         </is>
       </c>
